--- a/Health/Diseases in Singapore/DengueCluster.xlsx
+++ b/Health/Diseases in Singapore/DengueCluster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\Diseases in Singapore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C970B4-0E79-4F8A-B4F0-A42B56ACF24C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1534A6-9303-4D21-B854-5ECAAE40E8E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,6 +35,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Geocode : 
 Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
@@ -48,6 +49,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Geocode : 
 Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
@@ -70,9 +72,6 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Breakdown No. of Cases</t>
-  </si>
-  <si>
     <t>Woodleigh Close
 (8@Woodleigh)</t>
   </si>
@@ -2555,13 +2554,16 @@
   <si>
     <t>Yishun Street 61
 (Blk 638)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No. of Cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2571,13 +2573,21 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2626,16 +2636,16 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2956,8 +2966,8 @@
   </sheetPr>
   <dimension ref="A1:D692"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2978,12 +2988,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>1.3359124</v>
@@ -2997,7 +3007,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>1.3357931999999999</v>
@@ -3011,7 +3021,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>1.3364417</v>
@@ -3025,7 +3035,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>1.3361403000000001</v>
@@ -3039,7 +3049,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>34.195237400000003</v>
@@ -3053,7 +3063,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>34.185221900000002</v>
@@ -3067,7 +3077,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>1.3392453</v>
@@ -3081,7 +3091,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>1.3561323999999999</v>
@@ -3095,7 +3105,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>1.3555647</v>
@@ -3109,7 +3119,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>1.3551282</v>
@@ -3123,7 +3133,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>1.3552793999999999</v>
@@ -3137,7 +3147,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>1.3557918</v>
@@ -3151,7 +3161,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>1.3535108</v>
@@ -3165,7 +3175,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>1.3535055</v>
@@ -3179,7 +3189,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
         <v>1.3532838</v>
@@ -3193,7 +3203,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>1.3526229999999999</v>
@@ -3207,7 +3217,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>1.3544592</v>
@@ -3221,7 +3231,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>1.3540129999999999</v>
@@ -3235,7 +3245,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>1.3546484999999999</v>
@@ -3249,7 +3259,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>1.3548211999999999</v>
@@ -3263,7 +3273,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>1.3552842</v>
@@ -3277,7 +3287,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>1.3553976999999999</v>
@@ -3291,7 +3301,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
         <v>1.3534428999999999</v>
@@ -3305,7 +3315,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>1.3542017</v>
@@ -3319,7 +3329,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>1.3548754999999999</v>
@@ -3333,7 +3343,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>1.3548969</v>
@@ -3347,7 +3357,7 @@
     </row>
     <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
         <v>1.3544453999999999</v>
@@ -3361,7 +3371,7 @@
     </row>
     <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>1.3540772000000001</v>
@@ -3375,7 +3385,7 @@
     </row>
     <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>1.3543935</v>
@@ -3389,7 +3399,7 @@
     </row>
     <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2">
         <v>1.3554002000000001</v>
@@ -3403,7 +3413,7 @@
     </row>
     <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
         <v>1.3569978</v>
@@ -3417,7 +3427,7 @@
     </row>
     <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2">
         <v>1.357024</v>
@@ -3431,7 +3441,7 @@
     </row>
     <row r="34" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2">
         <v>1.3563867999999999</v>
@@ -3445,7 +3455,7 @@
     </row>
     <row r="35" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2">
         <v>1.3559445999999999</v>
@@ -3459,7 +3469,7 @@
     </row>
     <row r="36" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2">
         <v>1.3564571000000001</v>
@@ -3473,7 +3483,7 @@
     </row>
     <row r="37" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2">
         <v>1.3557147000000001</v>
@@ -3487,7 +3497,7 @@
     </row>
     <row r="38" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2">
         <v>1.3577767000000001</v>
@@ -3501,7 +3511,7 @@
     </row>
     <row r="39" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2">
         <v>41.347027300000001</v>
@@ -3515,7 +3525,7 @@
     </row>
     <row r="40" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2">
         <v>1.3599969000000001</v>
@@ -3529,7 +3539,7 @@
     </row>
     <row r="41" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2">
         <v>1.3592926999999999</v>
@@ -3543,7 +3553,7 @@
     </row>
     <row r="42" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
         <v>1.3585231</v>
@@ -3557,7 +3567,7 @@
     </row>
     <row r="43" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
         <v>1.3570736000000001</v>
@@ -3571,7 +3581,7 @@
     </row>
     <row r="44" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2">
         <v>34.892446499999998</v>
@@ -3585,7 +3595,7 @@
     </row>
     <row r="45" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2">
         <v>1.3589472</v>
@@ -3599,7 +3609,7 @@
     </row>
     <row r="46" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2">
         <v>1.3600969000000001</v>
@@ -3613,7 +3623,7 @@
     </row>
     <row r="47" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2">
         <v>1.3596566000000001</v>
@@ -3627,7 +3637,7 @@
     </row>
     <row r="48" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2">
         <v>1.3582854</v>
@@ -3641,7 +3651,7 @@
     </row>
     <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2">
         <v>1.3599648</v>
@@ -3655,7 +3665,7 @@
     </row>
     <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2">
         <v>1.3602810000000001</v>
@@ -3669,7 +3679,7 @@
     </row>
     <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="2">
         <v>1.3136395999999999</v>
@@ -3683,7 +3693,7 @@
     </row>
     <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2">
         <v>1.3200544000000001</v>
@@ -3697,7 +3707,7 @@
     </row>
     <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2">
         <v>1.3112603</v>
@@ -3711,7 +3721,7 @@
     </row>
     <row r="54" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2">
         <v>1.3108466999999999</v>
@@ -3725,7 +3735,7 @@
     </row>
     <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2">
         <v>1.3115211</v>
@@ -3739,7 +3749,7 @@
     </row>
     <row r="56" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2">
         <v>1.3122073000000001</v>
@@ -3753,7 +3763,7 @@
     </row>
     <row r="57" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2">
         <v>1.3115181</v>
@@ -3767,7 +3777,7 @@
     </row>
     <row r="58" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2">
         <v>1.3128282</v>
@@ -3781,7 +3791,7 @@
     </row>
     <row r="59" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2">
         <v>1.3122073000000001</v>
@@ -3795,7 +3805,7 @@
     </row>
     <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2">
         <v>1.3128769</v>
@@ -3809,7 +3819,7 @@
     </row>
     <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2">
         <v>1.3121233000000001</v>
@@ -3823,7 +3833,7 @@
     </row>
     <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2">
         <v>1.3151740000000001</v>
@@ -3837,7 +3847,7 @@
     </row>
     <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2">
         <v>1.3147044999999999</v>
@@ -3851,7 +3861,7 @@
     </row>
     <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2">
         <v>1.3149187</v>
@@ -3865,7 +3875,7 @@
     </row>
     <row r="65" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2">
         <v>1.3146203000000001</v>
@@ -3879,7 +3889,7 @@
     </row>
     <row r="66" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2">
         <v>1.3149892000000001</v>
@@ -3893,7 +3903,7 @@
     </row>
     <row r="67" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2">
         <v>1.3143899999999999</v>
@@ -3907,7 +3917,7 @@
     </row>
     <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2">
         <v>1.31212</v>
@@ -3921,7 +3931,7 @@
     </row>
     <row r="69" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2">
         <v>1.3126439000000001</v>
@@ -3935,7 +3945,7 @@
     </row>
     <row r="70" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2">
         <v>33.511538799999997</v>
@@ -3949,7 +3959,7 @@
     </row>
     <row r="71" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2">
         <v>1.3679063</v>
@@ -3963,7 +3973,7 @@
     </row>
     <row r="72" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2">
         <v>1.3687122</v>
@@ -3977,7 +3987,7 @@
     </row>
     <row r="73" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2">
         <v>1.3686437</v>
@@ -3991,7 +4001,7 @@
     </row>
     <row r="74" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2">
         <v>1.3690092</v>
@@ -4005,7 +4015,7 @@
     </row>
     <row r="75" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2">
         <v>1.3695084</v>
@@ -4019,7 +4029,7 @@
     </row>
     <row r="76" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2">
         <v>1.3691411</v>
@@ -4033,7 +4043,7 @@
     </row>
     <row r="77" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2">
         <v>1.3689993</v>
@@ -4047,7 +4057,7 @@
     </row>
     <row r="78" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2">
         <v>1.3683341</v>
@@ -4061,7 +4071,7 @@
     </row>
     <row r="79" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2">
         <v>1.3679694</v>
@@ -4075,7 +4085,7 @@
     </row>
     <row r="80" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2">
         <v>1.3336834</v>
@@ -4089,7 +4099,7 @@
     </row>
     <row r="81" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2">
         <v>1.3343451</v>
@@ -4103,7 +4113,7 @@
     </row>
     <row r="82" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="2">
         <v>1.3344885</v>
@@ -4117,7 +4127,7 @@
     </row>
     <row r="83" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2">
         <v>1.3341951000000001</v>
@@ -4131,7 +4141,7 @@
     </row>
     <row r="84" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2">
         <v>1.3346385999999999</v>
@@ -4145,7 +4155,7 @@
     </row>
     <row r="85" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2">
         <v>1.3350245000000001</v>
@@ -4159,7 +4169,7 @@
     </row>
     <row r="86" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2">
         <v>1.334789</v>
@@ -4173,7 +4183,7 @@
     </row>
     <row r="87" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2">
         <v>1.3357049000000001</v>
@@ -4187,7 +4197,7 @@
     </row>
     <row r="88" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2">
         <v>1.3351249999999999</v>
@@ -4201,7 +4211,7 @@
     </row>
     <row r="89" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2">
         <v>1.3351645000000001</v>
@@ -4215,7 +4225,7 @@
     </row>
     <row r="90" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2">
         <v>1.335394</v>
@@ -4229,7 +4239,7 @@
     </row>
     <row r="91" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2">
         <v>1.3349664000000001</v>
@@ -4243,7 +4253,7 @@
     </row>
     <row r="92" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2">
         <v>1.3350196000000001</v>
@@ -4257,7 +4267,7 @@
     </row>
     <row r="93" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2">
         <v>1.3345819999999999</v>
@@ -4271,7 +4281,7 @@
     </row>
     <row r="94" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2">
         <v>1.3317893000000001</v>
@@ -4285,7 +4295,7 @@
     </row>
     <row r="95" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2">
         <v>1.3326693999999999</v>
@@ -4299,7 +4309,7 @@
     </row>
     <row r="96" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2">
         <v>1.3326273</v>
@@ -4313,7 +4323,7 @@
     </row>
     <row r="97" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2">
         <v>1.3323852</v>
@@ -4327,7 +4337,7 @@
     </row>
     <row r="98" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2">
         <v>1.3345026</v>
@@ -4341,7 +4351,7 @@
     </row>
     <row r="99" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2">
         <v>1.3347195999999999</v>
@@ -4355,7 +4365,7 @@
     </row>
     <row r="100" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2">
         <v>1.3340619</v>
@@ -4369,7 +4379,7 @@
     </row>
     <row r="101" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2">
         <v>1.3337977999999999</v>
@@ -4383,7 +4393,7 @@
     </row>
     <row r="102" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2">
         <v>1.3335439</v>
@@ -4397,7 +4407,7 @@
     </row>
     <row r="103" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2">
         <v>1.3332643</v>
@@ -4411,7 +4421,7 @@
     </row>
     <row r="104" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2">
         <v>1.3337034000000001</v>
@@ -4425,7 +4435,7 @@
     </row>
     <row r="105" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2">
         <v>1.3339856999999999</v>
@@ -4439,7 +4449,7 @@
     </row>
     <row r="106" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2">
         <v>1.3296926</v>
@@ -4453,7 +4463,7 @@
     </row>
     <row r="107" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2">
         <v>1.3419378</v>
@@ -4467,7 +4477,7 @@
     </row>
     <row r="108" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2">
         <v>1.3429015</v>
@@ -4481,7 +4491,7 @@
     </row>
     <row r="109" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2">
         <v>1.3414417000000001</v>
@@ -4495,7 +4505,7 @@
     </row>
     <row r="110" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2">
         <v>1.3436314</v>
@@ -4509,7 +4519,7 @@
     </row>
     <row r="111" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2">
         <v>1.3439384000000001</v>
@@ -4523,7 +4533,7 @@
     </row>
     <row r="112" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2">
         <v>1.3433911000000001</v>
@@ -4537,7 +4547,7 @@
     </row>
     <row r="113" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2">
         <v>1.347467</v>
@@ -4551,7 +4561,7 @@
     </row>
     <row r="114" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2">
         <v>1.3468548</v>
@@ -4565,7 +4575,7 @@
     </row>
     <row r="115" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2">
         <v>1.3447663000000001</v>
@@ -4579,7 +4589,7 @@
     </row>
     <row r="116" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2">
         <v>1.3429015</v>
@@ -4593,7 +4603,7 @@
     </row>
     <row r="117" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2">
         <v>1.3445898999999999</v>
@@ -4607,7 +4617,7 @@
     </row>
     <row r="118" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2">
         <v>1.3450626000000001</v>
@@ -4621,7 +4631,7 @@
     </row>
     <row r="119" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2">
         <v>1.3443276</v>
@@ -4635,7 +4645,7 @@
     </row>
     <row r="120" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2">
         <v>1.3444022</v>
@@ -4649,7 +4659,7 @@
     </row>
     <row r="121" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2">
         <v>1.3435128999999999</v>
@@ -4663,7 +4673,7 @@
     </row>
     <row r="122" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2">
         <v>36.107049099999998</v>
@@ -4677,7 +4687,7 @@
     </row>
     <row r="123" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2">
         <v>1.3432975</v>
@@ -4691,7 +4701,7 @@
     </row>
     <row r="124" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2">
         <v>1.3430669</v>
@@ -4705,7 +4715,7 @@
     </row>
     <row r="125" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2">
         <v>1.3448281</v>
@@ -4719,7 +4729,7 @@
     </row>
     <row r="126" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2">
         <v>1.3428709000000001</v>
@@ -4733,7 +4743,7 @@
     </row>
     <row r="127" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2">
         <v>1.3362015</v>
@@ -4747,7 +4757,7 @@
     </row>
     <row r="128" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2">
         <v>1.3367161999999999</v>
@@ -4761,7 +4771,7 @@
     </row>
     <row r="129" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2">
         <v>1.3373096</v>
@@ -4775,7 +4785,7 @@
     </row>
     <row r="130" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2">
         <v>1.3367982</v>
@@ -4789,7 +4799,7 @@
     </row>
     <row r="131" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2">
         <v>1.3363212</v>
@@ -4803,7 +4813,7 @@
     </row>
     <row r="132" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2">
         <v>1.3355355</v>
@@ -4817,7 +4827,7 @@
     </row>
     <row r="133" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2">
         <v>1.3345241000000001</v>
@@ -4831,7 +4841,7 @@
     </row>
     <row r="134" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2">
         <v>1.3355108</v>
@@ -4845,7 +4855,7 @@
     </row>
     <row r="135" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2">
         <v>1.3343309000000001</v>
@@ -4859,7 +4869,7 @@
     </row>
     <row r="136" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2">
         <v>1.3727518000000001</v>
@@ -4873,7 +4883,7 @@
     </row>
     <row r="137" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2">
         <v>1.3725447</v>
@@ -4887,7 +4897,7 @@
     </row>
     <row r="138" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2">
         <v>1.3746426</v>
@@ -4901,7 +4911,7 @@
     </row>
     <row r="139" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2">
         <v>1.3732040999999999</v>
@@ -4915,7 +4925,7 @@
     </row>
     <row r="140" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2">
         <v>1.3735416</v>
@@ -4929,7 +4939,7 @@
     </row>
     <row r="141" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2">
         <v>1.3759851999999999</v>
@@ -4943,7 +4953,7 @@
     </row>
     <row r="142" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2">
         <v>39.171509499999999</v>
@@ -4957,7 +4967,7 @@
     </row>
     <row r="143" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2">
         <v>41.624675400000001</v>
@@ -4971,7 +4981,7 @@
     </row>
     <row r="144" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2">
         <v>48.794659299999999</v>
@@ -4985,7 +4995,7 @@
     </row>
     <row r="145" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2">
         <v>1.3765499000000001</v>
@@ -4999,7 +5009,7 @@
     </row>
     <row r="146" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2">
         <v>1.3565210000000001</v>
@@ -5013,7 +5023,7 @@
     </row>
     <row r="147" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2">
         <v>1.304951</v>
@@ -5027,7 +5037,7 @@
     </row>
     <row r="148" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2">
         <v>1.3061616</v>
@@ -5041,7 +5051,7 @@
     </row>
     <row r="149" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2">
         <v>1.3057685999999999</v>
@@ -5055,7 +5065,7 @@
     </row>
     <row r="150" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2">
         <v>1.3058874</v>
@@ -5069,7 +5079,7 @@
     </row>
     <row r="151" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2">
         <v>1.3047641999999999</v>
@@ -5083,7 +5093,7 @@
     </row>
     <row r="152" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2">
         <v>1.3052986</v>
@@ -5097,7 +5107,7 @@
     </row>
     <row r="153" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153" s="2">
         <v>1.3045456</v>
@@ -5111,7 +5121,7 @@
     </row>
     <row r="154" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2">
         <v>35.406995999999999</v>
@@ -5125,7 +5135,7 @@
     </row>
     <row r="155" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155" s="2">
         <v>51.800996699999999</v>
@@ -5139,7 +5149,7 @@
     </row>
     <row r="156" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156" s="2">
         <v>33.232323100000002</v>
@@ -5153,7 +5163,7 @@
     </row>
     <row r="157" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157" s="2">
         <v>1.2989416</v>
@@ -5167,7 +5177,7 @@
     </row>
     <row r="158" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2">
         <v>1.3008280000000001</v>
@@ -5181,7 +5191,7 @@
     </row>
     <row r="159" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159" s="2">
         <v>1.3003146999999999</v>
@@ -5195,7 +5205,7 @@
     </row>
     <row r="160" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160" s="2">
         <v>39.4269398</v>
@@ -5209,7 +5219,7 @@
     </row>
     <row r="161" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161" s="2">
         <v>39.324151800000003</v>
@@ -5223,7 +5233,7 @@
     </row>
     <row r="162" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2">
         <v>30.1332752</v>
@@ -5237,12 +5247,12 @@
     </row>
     <row r="163" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B163" s="4">
+        <v>163</v>
+      </c>
+      <c r="B163" s="3">
         <v>1.2968999999999999</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="3">
         <v>103.8899</v>
       </c>
       <c r="D163" s="2">
@@ -5251,7 +5261,7 @@
     </row>
     <row r="164" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" s="2">
         <v>1.2975239000000001</v>
@@ -5265,7 +5275,7 @@
     </row>
     <row r="165" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" s="2">
         <v>1.2972587</v>
@@ -5279,7 +5289,7 @@
     </row>
     <row r="166" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" s="2">
         <v>1.2967624</v>
@@ -5293,7 +5303,7 @@
     </row>
     <row r="167" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167" s="2">
         <v>29.677437600000001</v>
@@ -5307,7 +5317,7 @@
     </row>
     <row r="168" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168" s="2">
         <v>39.159663999999999</v>
@@ -5321,7 +5331,7 @@
     </row>
     <row r="169" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" s="2">
         <v>36.130256000000003</v>
@@ -5335,7 +5345,7 @@
     </row>
     <row r="170" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170" s="2">
         <v>1.3626655000000001</v>
@@ -5349,7 +5359,7 @@
     </row>
     <row r="171" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" s="2">
         <v>38.603870399999998</v>
@@ -5363,7 +5373,7 @@
     </row>
     <row r="172" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" s="2">
         <v>41.468377400000001</v>
@@ -5377,7 +5387,7 @@
     </row>
     <row r="173" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173" s="2">
         <v>1.362765</v>
@@ -5391,7 +5401,7 @@
     </row>
     <row r="174" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" s="2">
         <v>1.3628453</v>
@@ -5405,7 +5415,7 @@
     </row>
     <row r="175" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175" s="2">
         <v>1.362625</v>
@@ -5419,7 +5429,7 @@
     </row>
     <row r="176" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" s="2">
         <v>1.3630139999999999</v>
@@ -5433,7 +5443,7 @@
     </row>
     <row r="177" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" s="2">
         <v>1.3630196000000001</v>
@@ -5447,7 +5457,7 @@
     </row>
     <row r="178" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" s="2">
         <v>1.4304017</v>
@@ -5461,7 +5471,7 @@
     </row>
     <row r="179" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" s="2">
         <v>1.4312507999999999</v>
@@ -5475,7 +5485,7 @@
     </row>
     <row r="180" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" s="2">
         <v>1.4310962</v>
@@ -5489,7 +5499,7 @@
     </row>
     <row r="181" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" s="2">
         <v>1.4299227999999999</v>
@@ -5503,7 +5513,7 @@
     </row>
     <row r="182" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182" s="2">
         <v>1.4298035</v>
@@ -5517,7 +5527,7 @@
     </row>
     <row r="183" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" s="2">
         <v>1.4286312000000001</v>
@@ -5531,7 +5541,7 @@
     </row>
     <row r="184" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" s="2">
         <v>1.4293745</v>
@@ -5545,7 +5555,7 @@
     </row>
     <row r="185" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" s="2">
         <v>1.4291107000000001</v>
@@ -5559,7 +5569,7 @@
     </row>
     <row r="186" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" s="2">
         <v>1.4289438999999999</v>
@@ -5573,7 +5583,7 @@
     </row>
     <row r="187" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" s="2">
         <v>1.428631</v>
@@ -5587,7 +5597,7 @@
     </row>
     <row r="188" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" s="2">
         <v>1.4282459000000001</v>
@@ -5601,7 +5611,7 @@
     </row>
     <row r="189" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" s="2">
         <v>1.4280713</v>
@@ -5615,7 +5625,7 @@
     </row>
     <row r="190" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" s="2">
         <v>1.4319016</v>
@@ -5629,7 +5639,7 @@
     </row>
     <row r="191" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" s="2">
         <v>1.4311799000000001</v>
@@ -5643,7 +5653,7 @@
     </row>
     <row r="192" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" s="2">
         <v>1.4271374999999999</v>
@@ -5657,7 +5667,7 @@
     </row>
     <row r="193" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" s="2">
         <v>37.544844300000001</v>
@@ -5671,7 +5681,7 @@
     </row>
     <row r="194" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="2">
         <v>1.3457207</v>
@@ -5685,7 +5695,7 @@
     </row>
     <row r="195" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195" s="2">
         <v>1.3482136</v>
@@ -5699,7 +5709,7 @@
     </row>
     <row r="196" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" s="2">
         <v>1.3461154</v>
@@ -5713,7 +5723,7 @@
     </row>
     <row r="197" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197" s="2">
         <v>1.3471633000000001</v>
@@ -5727,7 +5737,7 @@
     </row>
     <row r="198" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198" s="2">
         <v>1.3478444000000001</v>
@@ -5741,7 +5751,7 @@
     </row>
     <row r="199" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" s="2">
         <v>1.3456030000000001</v>
@@ -5755,7 +5765,7 @@
     </row>
     <row r="200" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200" s="2">
         <v>1.3473824000000001</v>
@@ -5769,7 +5779,7 @@
     </row>
     <row r="201" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201" s="2">
         <v>32.970718300000001</v>
@@ -5783,7 +5793,7 @@
     </row>
     <row r="202" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" s="2">
         <v>1.3494032</v>
@@ -5797,7 +5807,7 @@
     </row>
     <row r="203" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="2">
         <v>1.3495672999999999</v>
@@ -5811,7 +5821,7 @@
     </row>
     <row r="204" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" s="2">
         <v>1.349091</v>
@@ -5825,7 +5835,7 @@
     </row>
     <row r="205" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" s="2">
         <v>1.3512713999999999</v>
@@ -5839,7 +5849,7 @@
     </row>
     <row r="206" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206" s="2">
         <v>1.3496455000000001</v>
@@ -5853,7 +5863,7 @@
     </row>
     <row r="207" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" s="2">
         <v>40.747736699999997</v>
@@ -5867,7 +5877,7 @@
     </row>
     <row r="208" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" s="2">
         <v>1.3621124</v>
@@ -5881,7 +5891,7 @@
     </row>
     <row r="209" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" s="2">
         <v>38.551639999999999</v>
@@ -5895,7 +5905,7 @@
     </row>
     <row r="210" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" s="2">
         <v>1.3615245</v>
@@ -5909,7 +5919,7 @@
     </row>
     <row r="211" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="2">
         <v>1.3615245</v>
@@ -5923,7 +5933,7 @@
     </row>
     <row r="212" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" s="2">
         <v>1.3625731999999999</v>
@@ -5937,7 +5947,7 @@
     </row>
     <row r="213" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" s="2">
         <v>40.730708999999997</v>
@@ -5951,19 +5961,19 @@
     </row>
     <row r="214" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B214" s="3">
+        <v>214</v>
+      </c>
+      <c r="B214" s="4">
         <v>1.2968999999999999</v>
       </c>
-      <c r="C214" s="3"/>
+      <c r="C214" s="4"/>
       <c r="D214" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="2">
         <v>40.607675499999999</v>
@@ -5977,7 +5987,7 @@
     </row>
     <row r="216" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="2">
         <v>1.3625828</v>
@@ -5991,7 +6001,7 @@
     </row>
     <row r="217" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" s="2">
         <v>1.3895841</v>
@@ -6005,7 +6015,7 @@
     </row>
     <row r="218" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="2">
         <v>1.3884805</v>
@@ -6019,7 +6029,7 @@
     </row>
     <row r="219" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" s="2">
         <v>1.3907208</v>
@@ -6033,7 +6043,7 @@
     </row>
     <row r="220" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220" s="2">
         <v>1.3888282999999999</v>
@@ -6047,7 +6057,7 @@
     </row>
     <row r="221" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" s="2">
         <v>1.3881207</v>
@@ -6061,7 +6071,7 @@
     </row>
     <row r="222" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" s="2">
         <v>1.3909297</v>
@@ -6075,7 +6085,7 @@
     </row>
     <row r="223" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" s="2">
         <v>1.3878816</v>
@@ -6089,7 +6099,7 @@
     </row>
     <row r="224" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" s="2">
         <v>1.3878444999999999</v>
@@ -6103,7 +6113,7 @@
     </row>
     <row r="225" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" s="2">
         <v>1.3890308</v>
@@ -6117,7 +6127,7 @@
     </row>
     <row r="226" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" s="2">
         <v>1.3888341</v>
@@ -6131,7 +6141,7 @@
     </row>
     <row r="227" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227" s="2">
         <v>1.3361889</v>
@@ -6145,7 +6155,7 @@
     </row>
     <row r="228" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228" s="2">
         <v>1.3363970999999999</v>
@@ -6159,7 +6169,7 @@
     </row>
     <row r="229" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" s="2">
         <v>1.3361889</v>
@@ -6173,7 +6183,7 @@
     </row>
     <row r="230" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230" s="2">
         <v>1.3367819000000001</v>
@@ -6187,7 +6197,7 @@
     </row>
     <row r="231" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231" s="2">
         <v>1.3379099999999999</v>
@@ -6201,7 +6211,7 @@
     </row>
     <row r="232" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" s="2">
         <v>1.336573</v>
@@ -6215,7 +6225,7 @@
     </row>
     <row r="233" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233" s="2">
         <v>1.3335235999999999</v>
@@ -6229,7 +6239,7 @@
     </row>
     <row r="234" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234" s="2">
         <v>1.3342575999999999</v>
@@ -6243,7 +6253,7 @@
     </row>
     <row r="235" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235" s="2">
         <v>1.3336811</v>
@@ -6257,7 +6267,7 @@
     </row>
     <row r="236" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236" s="2">
         <v>1.3327178</v>
@@ -6271,7 +6281,7 @@
     </row>
     <row r="237" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" s="2">
         <v>1.3325457999999999</v>
@@ -6285,7 +6295,7 @@
     </row>
     <row r="238" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238" s="2">
         <v>1.3033473</v>
@@ -6299,7 +6309,7 @@
     </row>
     <row r="239" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239" s="2">
         <v>1.3030421000000001</v>
@@ -6313,7 +6323,7 @@
     </row>
     <row r="240" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240" s="2">
         <v>1.3026095</v>
@@ -6327,7 +6337,7 @@
     </row>
     <row r="241" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241" s="2">
         <v>1.3023525</v>
@@ -6341,7 +6351,7 @@
     </row>
     <row r="242" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242" s="2">
         <v>1.3021050000000001</v>
@@ -6355,7 +6365,7 @@
     </row>
     <row r="243" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243" s="2">
         <v>1.3038573</v>
@@ -6369,7 +6379,7 @@
     </row>
     <row r="244" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B244" s="2">
         <v>1.3044838000000001</v>
@@ -6383,7 +6393,7 @@
     </row>
     <row r="245" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B245" s="2">
         <v>1.3043411</v>
@@ -6397,7 +6407,7 @@
     </row>
     <row r="246" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246" s="2">
         <v>1.3037451</v>
@@ -6411,7 +6421,7 @@
     </row>
     <row r="247" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247" s="2">
         <v>1.3036338000000001</v>
@@ -6425,7 +6435,7 @@
     </row>
     <row r="248" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248" s="2">
         <v>1.3019995</v>
@@ -6439,7 +6449,7 @@
     </row>
     <row r="249" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="2">
         <v>1.3013455</v>
@@ -6453,7 +6463,7 @@
     </row>
     <row r="250" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B250" s="2">
         <v>1.3746426</v>
@@ -6467,7 +6477,7 @@
     </row>
     <row r="251" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B251" s="2">
         <v>1.3748453</v>
@@ -6481,7 +6491,7 @@
     </row>
     <row r="252" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B252" s="2">
         <v>1.3732040999999999</v>
@@ -6495,7 +6505,7 @@
     </row>
     <row r="253" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2">
         <v>1.3716904999999999</v>
@@ -6509,7 +6519,7 @@
     </row>
     <row r="254" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2">
         <v>1.3724683</v>
@@ -6523,7 +6533,7 @@
     </row>
     <row r="255" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B255" s="2">
         <v>1.3735416</v>
@@ -6537,7 +6547,7 @@
     </row>
     <row r="256" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B256" s="2">
         <v>1.4280868</v>
@@ -6551,7 +6561,7 @@
     </row>
     <row r="257" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257" s="2">
         <v>1.4304622</v>
@@ -6565,7 +6575,7 @@
     </row>
     <row r="258" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B258" s="2">
         <v>1.4305216999999999</v>
@@ -6579,7 +6589,7 @@
     </row>
     <row r="259" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B259" s="2">
         <v>1.4307848999999999</v>
@@ -6593,7 +6603,7 @@
     </row>
     <row r="260" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B260" s="2">
         <v>1.4299743</v>
@@ -6607,7 +6617,7 @@
     </row>
     <row r="261" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B261" s="2">
         <v>1.4302348</v>
@@ -6621,7 +6631,7 @@
     </row>
     <row r="262" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B262" s="2">
         <v>1.4304946999999999</v>
@@ -6635,7 +6645,7 @@
     </row>
     <row r="263" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B263" s="2">
         <v>1.4293564000000001</v>
@@ -6649,7 +6659,7 @@
     </row>
     <row r="264" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B264" s="2">
         <v>1.4287737</v>
@@ -6663,7 +6673,7 @@
     </row>
     <row r="265" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B265" s="2">
         <v>1.4286224999999999</v>
@@ -6677,7 +6687,7 @@
     </row>
     <row r="266" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B266" s="2">
         <v>1.4277464</v>
@@ -6691,7 +6701,7 @@
     </row>
     <row r="267" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B267" s="2">
         <v>1.4278898</v>
@@ -6705,7 +6715,7 @@
     </row>
     <row r="268" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B268" s="2">
         <v>1.4315971000000001</v>
@@ -6719,7 +6729,7 @@
     </row>
     <row r="269" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B269" s="2">
         <v>32.883109699999999</v>
@@ -6733,7 +6743,7 @@
     </row>
     <row r="270" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B270" s="2">
         <v>36.480359999999997</v>
@@ -6747,7 +6757,7 @@
     </row>
     <row r="271" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B271" s="2">
         <v>30.361161800000001</v>
@@ -6761,7 +6771,7 @@
     </row>
     <row r="272" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B272" s="2">
         <v>1.3600709</v>
@@ -6775,7 +6785,7 @@
     </row>
     <row r="273" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B273" s="2">
         <v>35.621542599999998</v>
@@ -6789,7 +6799,7 @@
     </row>
     <row r="274" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B274" s="2">
         <v>29.186873499999901</v>
@@ -6803,7 +6813,7 @@
     </row>
     <row r="275" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B275" s="2">
         <v>1.3623561</v>
@@ -6817,7 +6827,7 @@
     </row>
     <row r="276" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B276" s="2">
         <v>1.3713987999999999</v>
@@ -6831,7 +6841,7 @@
     </row>
     <row r="277" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B277" s="2">
         <v>1.3724232999999999</v>
@@ -6845,7 +6855,7 @@
     </row>
     <row r="278" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B278" s="2">
         <v>1.3721289000000001</v>
@@ -6859,7 +6869,7 @@
     </row>
     <row r="279" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B279" s="2">
         <v>1.3725670000000001</v>
@@ -6873,7 +6883,7 @@
     </row>
     <row r="280" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B280" s="2">
         <v>1.3724178</v>
@@ -6887,7 +6897,7 @@
     </row>
     <row r="281" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B281" s="2">
         <v>1.3727825</v>
@@ -6901,7 +6911,7 @@
     </row>
     <row r="282" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B282" s="2">
         <v>1.3747692</v>
@@ -6915,7 +6925,7 @@
     </row>
     <row r="283" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B283" s="2">
         <v>1.3743338</v>
@@ -6929,7 +6939,7 @@
     </row>
     <row r="284" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B284" s="2">
         <v>1.3739675</v>
@@ -6943,7 +6953,7 @@
     </row>
     <row r="285" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B285" s="2">
         <v>1.3735236</v>
@@ -6957,7 +6967,7 @@
     </row>
     <row r="286" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B286" s="2">
         <v>1.3735793000000001</v>
@@ -6971,7 +6981,7 @@
     </row>
     <row r="287" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B287" s="2">
         <v>1.3733028</v>
@@ -6985,7 +6995,7 @@
     </row>
     <row r="288" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B288" s="2">
         <v>1.3738891</v>
@@ -6999,7 +7009,7 @@
     </row>
     <row r="289" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B289" s="2">
         <v>1.3744787999999999</v>
@@ -7013,7 +7023,7 @@
     </row>
     <row r="290" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B290" s="2">
         <v>1.3666221000000001</v>
@@ -7027,7 +7037,7 @@
     </row>
     <row r="291" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B291" s="2">
         <v>1.3666695</v>
@@ -7041,7 +7051,7 @@
     </row>
     <row r="292" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B292" s="2">
         <v>1.3683501</v>
@@ -7055,7 +7065,7 @@
     </row>
     <row r="293" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B293" s="2">
         <v>1.3670544</v>
@@ -7069,7 +7079,7 @@
     </row>
     <row r="294" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B294" s="2">
         <v>1.3683603</v>
@@ -7083,7 +7093,7 @@
     </row>
     <row r="295" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B295" s="2">
         <v>1.3679934</v>
@@ -7097,7 +7107,7 @@
     </row>
     <row r="296" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B296" s="2">
         <v>1.3675154</v>
@@ -7111,7 +7121,7 @@
     </row>
     <row r="297" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B297" s="2">
         <v>1.3671720000000001</v>
@@ -7125,7 +7135,7 @@
     </row>
     <row r="298" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B298" s="2">
         <v>1.3379099999999999</v>
@@ -7139,7 +7149,7 @@
     </row>
     <row r="299" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B299" s="2">
         <v>1.3407914999999999</v>
@@ -7153,7 +7163,7 @@
     </row>
     <row r="300" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B300" s="2">
         <v>1.3434652</v>
@@ -7167,7 +7177,7 @@
     </row>
     <row r="301" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B301" s="2">
         <v>41.681492800000001</v>
@@ -7181,7 +7191,7 @@
     </row>
     <row r="302" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B302" s="2">
         <v>1.3462037</v>
@@ -7195,7 +7205,7 @@
     </row>
     <row r="303" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B303" s="2">
         <v>51.591181599999999</v>
@@ -7209,7 +7219,7 @@
     </row>
     <row r="304" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B304" s="2">
         <v>37.544844300000001</v>
@@ -7223,7 +7233,7 @@
     </row>
     <row r="305" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B305" s="2">
         <v>1.3492257999999999</v>
@@ -7237,7 +7247,7 @@
     </row>
     <row r="306" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B306" s="2">
         <v>41.681492800000001</v>
@@ -7251,7 +7261,7 @@
     </row>
     <row r="307" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B307" s="2">
         <v>43.814436699999902</v>
@@ -7265,7 +7275,7 @@
     </row>
     <row r="308" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B308" s="2">
         <v>1.3693544</v>
@@ -7279,7 +7289,7 @@
     </row>
     <row r="309" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B309" s="2">
         <v>1.3639288000000001</v>
@@ -7293,7 +7303,7 @@
     </row>
     <row r="310" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B310" s="2">
         <v>1.3680357999999999</v>
@@ -7307,7 +7317,7 @@
     </row>
     <row r="311" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B311" s="2">
         <v>1.3677443</v>
@@ -7321,7 +7331,7 @@
     </row>
     <row r="312" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B312" s="2">
         <v>1.3673797000000001</v>
@@ -7335,7 +7345,7 @@
     </row>
     <row r="313" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B313" s="2">
         <v>1.3670138999999999</v>
@@ -7349,7 +7359,7 @@
     </row>
     <row r="314" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B314" s="2">
         <v>1.3664995</v>
@@ -7363,7 +7373,7 @@
     </row>
     <row r="315" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B315" s="2">
         <v>1.3666374999999999</v>
@@ -7377,7 +7387,7 @@
     </row>
     <row r="316" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B316" s="2">
         <v>1.3657393</v>
@@ -7391,7 +7401,7 @@
     </row>
     <row r="317" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B317" s="2">
         <v>1.3669192999999999</v>
@@ -7405,7 +7415,7 @@
     </row>
     <row r="318" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B318" s="2">
         <v>1.3662627000000001</v>
@@ -7419,7 +7429,7 @@
     </row>
     <row r="319" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B319" s="2">
         <v>1.3658969999999999</v>
@@ -7433,7 +7443,7 @@
     </row>
     <row r="320" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B320" s="2">
         <v>1.3654591</v>
@@ -7447,7 +7457,7 @@
     </row>
     <row r="321" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B321" s="2">
         <v>1.3641395000000001</v>
@@ -7461,7 +7471,7 @@
     </row>
     <row r="322" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B322" s="2">
         <v>1.3075532000000001</v>
@@ -7475,7 +7485,7 @@
     </row>
     <row r="323" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B323" s="2">
         <v>1.3071556</v>
@@ -7489,7 +7499,7 @@
     </row>
     <row r="324" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B324" s="2">
         <v>1.307958</v>
@@ -7503,7 +7513,7 @@
     </row>
     <row r="325" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B325" s="2">
         <v>1.3064811000000001</v>
@@ -7517,7 +7527,7 @@
     </row>
     <row r="326" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B326" s="2">
         <v>1.3065754000000001</v>
@@ -7531,7 +7541,7 @@
     </row>
     <row r="327" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B327" s="2">
         <v>1.3089869000000001</v>
@@ -7545,7 +7555,7 @@
     </row>
     <row r="328" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B328" s="2">
         <v>1.3092984000000001</v>
@@ -7559,7 +7569,7 @@
     </row>
     <row r="329" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B329" s="2">
         <v>1.3085511000000001</v>
@@ -7573,7 +7583,7 @@
     </row>
     <row r="330" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B330" s="2">
         <v>1.4336921</v>
@@ -7587,7 +7597,7 @@
     </row>
     <row r="331" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B331" s="2">
         <v>1.4336154000000001</v>
@@ -7601,7 +7611,7 @@
     </row>
     <row r="332" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B332" s="2">
         <v>1.4341687999999999</v>
@@ -7615,7 +7625,7 @@
     </row>
     <row r="333" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B333" s="2">
         <v>1.4342007999999999</v>
@@ -7629,7 +7639,7 @@
     </row>
     <row r="334" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B334" s="2">
         <v>1.4025345</v>
@@ -7643,7 +7653,7 @@
     </row>
     <row r="335" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B335" s="2">
         <v>1.4020944</v>
@@ -7657,7 +7667,7 @@
     </row>
     <row r="336" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B336" s="2">
         <v>1.4021705</v>
@@ -7671,7 +7681,7 @@
     </row>
     <row r="337" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B337" s="2">
         <v>1.4019515</v>
@@ -7685,7 +7695,7 @@
     </row>
     <row r="338" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B338" s="2">
         <v>1.4018797999999999</v>
@@ -7699,7 +7709,7 @@
     </row>
     <row r="339" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B339" s="2">
         <v>1.4016630000000001</v>
@@ -7713,7 +7723,7 @@
     </row>
     <row r="340" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B340" s="2">
         <v>1.4438727</v>
@@ -7727,7 +7737,7 @@
     </row>
     <row r="341" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B341" s="2">
         <v>1.4438867</v>
@@ -7741,7 +7751,7 @@
     </row>
     <row r="342" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B342" s="2">
         <v>1.4435089999999999</v>
@@ -7755,7 +7765,7 @@
     </row>
     <row r="343" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B343" s="2">
         <v>1.4421136999999999</v>
@@ -7769,7 +7779,7 @@
     </row>
     <row r="344" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B344" s="2">
         <v>1.4444359</v>
@@ -7783,7 +7793,7 @@
     </row>
     <row r="345" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B345" s="2">
         <v>1.4442486999999999</v>
@@ -7797,7 +7807,7 @@
     </row>
     <row r="346" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B346" s="2">
         <v>1.3011037000000001</v>
@@ -7811,7 +7821,7 @@
     </row>
     <row r="347" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B347" s="2">
         <v>1.3013806000000001</v>
@@ -7825,7 +7835,7 @@
     </row>
     <row r="348" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B348" s="2">
         <v>1.3012687999999999</v>
@@ -7839,7 +7849,7 @@
     </row>
     <row r="349" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B349" s="2">
         <v>1.3027274</v>
@@ -7853,7 +7863,7 @@
     </row>
     <row r="350" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B350" s="2">
         <v>1.3017592</v>
@@ -7867,7 +7877,7 @@
     </row>
     <row r="351" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B351" s="2">
         <v>1.3024606999999999</v>
@@ -7881,7 +7891,7 @@
     </row>
     <row r="352" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B352" s="2">
         <v>1.3021708000000001</v>
@@ -7895,7 +7905,7 @@
     </row>
     <row r="353" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B353" s="2">
         <v>1.3030969999999999</v>
@@ -7909,7 +7919,7 @@
     </row>
     <row r="354" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B354" s="2">
         <v>1.3028278</v>
@@ -7923,7 +7933,7 @@
     </row>
     <row r="355" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B355" s="2">
         <v>1.3179719999999999</v>
@@ -7937,7 +7947,7 @@
     </row>
     <row r="356" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B356" s="2">
         <v>28.127809500000001</v>
@@ -7951,7 +7961,7 @@
     </row>
     <row r="357" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B357" s="2">
         <v>1.3175152000000001</v>
@@ -7965,7 +7975,7 @@
     </row>
     <row r="358" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B358" s="2">
         <v>55.824331200000003</v>
@@ -7979,7 +7989,7 @@
     </row>
     <row r="359" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B359" s="2">
         <v>32.258834999999998</v>
@@ -7993,7 +8003,7 @@
     </row>
     <row r="360" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B360" s="2">
         <v>1.3166404</v>
@@ -8007,7 +8017,7 @@
     </row>
     <row r="361" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B361" s="2">
         <v>44.221199299999903</v>
@@ -8021,7 +8031,7 @@
     </row>
     <row r="362" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B362" s="2">
         <v>1.3163187999999999</v>
@@ -8035,7 +8045,7 @@
     </row>
     <row r="363" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B363" s="2">
         <v>1.3775580000000001</v>
@@ -8049,7 +8059,7 @@
     </row>
     <row r="364" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B364" s="2">
         <v>1.3784904</v>
@@ -8063,7 +8073,7 @@
     </row>
     <row r="365" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B365" s="2">
         <v>1.3200544000000001</v>
@@ -8077,7 +8087,7 @@
     </row>
     <row r="366" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B366" s="2">
         <v>1.3124176999999999</v>
@@ -8091,7 +8101,7 @@
     </row>
     <row r="367" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B367" s="2">
         <v>1.3131134</v>
@@ -8105,7 +8115,7 @@
     </row>
     <row r="368" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B368" s="2">
         <v>1.3128214</v>
@@ -8119,7 +8129,7 @@
     </row>
     <row r="369" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B369" s="2">
         <v>1.3141100999999999</v>
@@ -8133,7 +8143,7 @@
     </row>
     <row r="370" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B370" s="2">
         <v>1.3125935</v>
@@ -8147,7 +8157,7 @@
     </row>
     <row r="371" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B371" s="2">
         <v>33.511538799999997</v>
@@ -8161,7 +8171,7 @@
     </row>
     <row r="372" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B372" s="2">
         <v>1.3357532000000001</v>
@@ -8175,7 +8185,7 @@
     </row>
     <row r="373" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B373" s="2">
         <v>1.3352173000000001</v>
@@ -8189,7 +8199,7 @@
     </row>
     <row r="374" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B374" s="2">
         <v>1.3343353</v>
@@ -8203,7 +8213,7 @@
     </row>
     <row r="375" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B375" s="2">
         <v>1.3366587999999999</v>
@@ -8217,7 +8227,7 @@
     </row>
     <row r="376" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B376" s="2">
         <v>1.3698463999999999</v>
@@ -8231,7 +8241,7 @@
     </row>
     <row r="377" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B377" s="2">
         <v>1.3698332</v>
@@ -8245,7 +8255,7 @@
     </row>
     <row r="378" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B378" s="2">
         <v>1.3737394000000001</v>
@@ -8259,7 +8269,7 @@
     </row>
     <row r="379" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B379" s="2">
         <v>1.3740315000000001</v>
@@ -8273,7 +8283,7 @@
     </row>
     <row r="380" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B380" s="2">
         <v>1.3732260999999999</v>
@@ -8287,7 +8297,7 @@
     </row>
     <row r="381" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B381" s="2">
         <v>1.3742406</v>
@@ -8301,7 +8311,7 @@
     </row>
     <row r="382" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B382" s="2">
         <v>1.3725613999999999</v>
@@ -8315,7 +8325,7 @@
     </row>
     <row r="383" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B383" s="2">
         <v>1.3720459</v>
@@ -8329,7 +8339,7 @@
     </row>
     <row r="384" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B384" s="2">
         <v>1.3705795999999999</v>
@@ -8343,7 +8353,7 @@
     </row>
     <row r="385" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B385" s="2">
         <v>1.3714318000000001</v>
@@ -8357,7 +8367,7 @@
     </row>
     <row r="386" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B386" s="2">
         <v>1.3743588</v>
@@ -8371,7 +8381,7 @@
     </row>
     <row r="387" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B387" s="2">
         <v>1.350921</v>
@@ -8385,7 +8395,7 @@
     </row>
     <row r="388" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B388" s="2">
         <v>1.3401437</v>
@@ -8399,7 +8409,7 @@
     </row>
     <row r="389" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B389" s="2">
         <v>1.3391629</v>
@@ -8413,7 +8423,7 @@
     </row>
     <row r="390" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B390" s="2">
         <v>1.3395306</v>
@@ -8427,7 +8437,7 @@
     </row>
     <row r="391" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B391" s="2">
         <v>1.3383213</v>
@@ -8441,7 +8451,7 @@
     </row>
     <row r="392" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B392" s="2">
         <v>1.3387199000000001</v>
@@ -8455,7 +8465,7 @@
     </row>
     <row r="393" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B393" s="2">
         <v>1.3398094</v>
@@ -8469,7 +8479,7 @@
     </row>
     <row r="394" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B394" s="2">
         <v>1.3398151</v>
@@ -8483,7 +8493,7 @@
     </row>
     <row r="395" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B395" s="2">
         <v>1.3386400000000001</v>
@@ -8497,7 +8507,7 @@
     </row>
     <row r="396" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B396" s="2">
         <v>1.3386426</v>
@@ -8511,7 +8521,7 @@
     </row>
     <row r="397" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B397" s="2">
         <v>1.3378033</v>
@@ -8525,7 +8535,7 @@
     </row>
     <row r="398" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B398" s="2">
         <v>1.3223031000000001</v>
@@ -8539,7 +8549,7 @@
     </row>
     <row r="399" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B399" s="2">
         <v>1.3151387999999999</v>
@@ -8553,7 +8563,7 @@
     </row>
     <row r="400" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B400" s="2">
         <v>1.3176133000000001</v>
@@ -8567,7 +8577,7 @@
     </row>
     <row r="401" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B401" s="2">
         <v>1.3167184999999999</v>
@@ -8581,7 +8591,7 @@
     </row>
     <row r="402" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B402" s="2">
         <v>1.3181788000000001</v>
@@ -8595,7 +8605,7 @@
     </row>
     <row r="403" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B403" s="2">
         <v>1.3167757</v>
@@ -8609,7 +8619,7 @@
     </row>
     <row r="404" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B404" s="2">
         <v>1.3200544000000001</v>
@@ -8623,7 +8633,7 @@
     </row>
     <row r="405" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B405" s="2">
         <v>1.3149521</v>
@@ -8637,7 +8647,7 @@
     </row>
     <row r="406" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B406" s="2">
         <v>1.3119278000000001</v>
@@ -8651,7 +8661,7 @@
     </row>
     <row r="407" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B407" s="2">
         <v>1.3152493000000001</v>
@@ -8665,7 +8675,7 @@
     </row>
     <row r="408" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B408" s="2">
         <v>1.3153115</v>
@@ -8679,7 +8689,7 @@
     </row>
     <row r="409" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B409" s="2">
         <v>1.3132908000000001</v>
@@ -8693,7 +8703,7 @@
     </row>
     <row r="410" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B410" s="2">
         <v>1.3155178999999999</v>
@@ -8707,7 +8717,7 @@
     </row>
     <row r="411" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B411" s="2">
         <v>33.782738600000002</v>
@@ -8721,7 +8731,7 @@
     </row>
     <row r="412" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B412" s="2">
         <v>35.319215900000003</v>
@@ -8735,7 +8745,7 @@
     </row>
     <row r="413" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B413" s="2">
         <v>1.3591392</v>
@@ -8749,7 +8759,7 @@
     </row>
     <row r="414" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B414" s="2">
         <v>1.3579584</v>
@@ -8763,7 +8773,7 @@
     </row>
     <row r="415" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B415" s="2">
         <v>36.539258199999999</v>
@@ -8777,7 +8787,7 @@
     </row>
     <row r="416" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B416" s="2">
         <v>1.3807020000000001</v>
@@ -8791,7 +8801,7 @@
     </row>
     <row r="417" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B417" s="2">
         <v>1.3349168</v>
@@ -8805,7 +8815,7 @@
     </row>
     <row r="418" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B418" s="2">
         <v>1.3214950999999999</v>
@@ -8819,7 +8829,7 @@
     </row>
     <row r="419" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B419" s="2">
         <v>1.3285514</v>
@@ -8833,7 +8843,7 @@
     </row>
     <row r="420" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B420" s="2">
         <v>1.3278745999999999</v>
@@ -8847,7 +8857,7 @@
     </row>
     <row r="421" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B421" s="2">
         <v>1.3281337</v>
@@ -8861,7 +8871,7 @@
     </row>
     <row r="422" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B422" s="2">
         <v>1.3276142</v>
@@ -8875,7 +8885,7 @@
     </row>
     <row r="423" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B423" s="2">
         <v>1.3280489</v>
@@ -8889,7 +8899,7 @@
     </row>
     <row r="424" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B424" s="2">
         <v>1.371434</v>
@@ -8903,7 +8913,7 @@
     </row>
     <row r="425" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B425" s="2">
         <v>1.3709152</v>
@@ -8917,7 +8927,7 @@
     </row>
     <row r="426" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B426" s="2">
         <v>1.3701494000000001</v>
@@ -8931,7 +8941,7 @@
     </row>
     <row r="427" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B427" s="2">
         <v>1.3705541999999999</v>
@@ -8945,7 +8955,7 @@
     </row>
     <row r="428" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B428" s="2">
         <v>1.3717843999999999</v>
@@ -8959,7 +8969,7 @@
     </row>
     <row r="429" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B429" s="2">
         <v>1.3716324</v>
@@ -8973,7 +8983,7 @@
     </row>
     <row r="430" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B430" s="2">
         <v>26.316635399999999</v>
@@ -8987,7 +8997,7 @@
     </row>
     <row r="431" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B431" s="2">
         <v>1.3838263</v>
@@ -9001,7 +9011,7 @@
     </row>
     <row r="432" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B432" s="2">
         <v>1.3852717000000001</v>
@@ -9015,7 +9025,7 @@
     </row>
     <row r="433" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B433" s="2">
         <v>1.3812614000000001</v>
@@ -9029,7 +9039,7 @@
     </row>
     <row r="434" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B434" s="2">
         <v>1.3823605000000001</v>
@@ -9043,7 +9053,7 @@
     </row>
     <row r="435" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B435" s="2">
         <v>1.3829492000000001</v>
@@ -9057,7 +9067,7 @@
     </row>
     <row r="436" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B436" s="2">
         <v>1.367424</v>
@@ -9071,7 +9081,7 @@
     </row>
     <row r="437" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B437" s="2">
         <v>1.3663574999999999</v>
@@ -9085,7 +9095,7 @@
     </row>
     <row r="438" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B438" s="2">
         <v>1.3644946</v>
@@ -9099,7 +9109,7 @@
     </row>
     <row r="439" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B439" s="2">
         <v>45.5363568</v>
@@ -9113,7 +9123,7 @@
     </row>
     <row r="440" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B440" s="2">
         <v>1.422685</v>
@@ -9127,7 +9137,7 @@
     </row>
     <row r="441" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B441" s="2">
         <v>1.4222826</v>
@@ -9141,7 +9151,7 @@
     </row>
     <row r="442" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B442" s="2">
         <v>1.4217481000000001</v>
@@ -9155,7 +9165,7 @@
     </row>
     <row r="443" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B443" s="2">
         <v>1.4219295999999999</v>
@@ -9169,7 +9179,7 @@
     </row>
     <row r="444" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B444" s="2">
         <v>1.4222387999999999</v>
@@ -9183,7 +9193,7 @@
     </row>
     <row r="445" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B445" s="2">
         <v>1.3727518000000001</v>
@@ -9197,7 +9207,7 @@
     </row>
     <row r="446" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B446" s="2">
         <v>-27.215659800000001</v>
@@ -9211,7 +9221,7 @@
     </row>
     <row r="447" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B447" s="2">
         <v>1.3788260999999999</v>
@@ -9225,7 +9235,7 @@
     </row>
     <row r="448" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B448" s="2">
         <v>1.3765499000000001</v>
@@ -9239,7 +9249,7 @@
     </row>
     <row r="449" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B449" s="2">
         <v>1.3033982</v>
@@ -9253,7 +9263,7 @@
     </row>
     <row r="450" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B450" s="2">
         <v>1.3046648000000001</v>
@@ -9267,7 +9277,7 @@
     </row>
     <row r="451" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B451" s="2">
         <v>1.3048576000000001</v>
@@ -9281,7 +9291,7 @@
     </row>
     <row r="452" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B452" s="2">
         <v>1.3040113</v>
@@ -9295,7 +9305,7 @@
     </row>
     <row r="453" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B453" s="2">
         <v>1.3053269999999999</v>
@@ -9309,7 +9319,7 @@
     </row>
     <row r="454" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B454" s="2">
         <v>1.3749363999999999</v>
@@ -9323,7 +9333,7 @@
     </row>
     <row r="455" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B455" s="2">
         <v>1.3750268000000001</v>
@@ -9337,7 +9347,7 @@
     </row>
     <row r="456" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B456" s="2">
         <v>1.3744281</v>
@@ -9351,7 +9361,7 @@
     </row>
     <row r="457" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B457" s="2">
         <v>1.3742327999999999</v>
@@ -9365,7 +9375,7 @@
     </row>
     <row r="458" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B458" s="2">
         <v>1.3745061999999999</v>
@@ -9379,7 +9389,7 @@
     </row>
     <row r="459" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B459" s="2">
         <v>1.3067162000000001</v>
@@ -9393,7 +9403,7 @@
     </row>
     <row r="460" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B460" s="2">
         <v>1.3063319</v>
@@ -9407,7 +9417,7 @@
     </row>
     <row r="461" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B461" s="2">
         <v>1.3074614</v>
@@ -9421,7 +9431,7 @@
     </row>
     <row r="462" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B462" s="2">
         <v>1.3275220999999999</v>
@@ -9435,7 +9445,7 @@
     </row>
     <row r="463" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B463" s="2">
         <v>1.326468</v>
@@ -9449,7 +9459,7 @@
     </row>
     <row r="464" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B464" s="2">
         <v>1.3258220000000001</v>
@@ -9463,7 +9473,7 @@
     </row>
     <row r="465" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B465" s="2">
         <v>1.3251170999999999</v>
@@ -9477,7 +9487,7 @@
     </row>
     <row r="466" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B466" s="2">
         <v>1.3598425000000001</v>
@@ -9491,7 +9501,7 @@
     </row>
     <row r="467" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B467" s="2">
         <v>1.3627756</v>
@@ -9505,7 +9515,7 @@
     </row>
     <row r="468" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B468" s="2">
         <v>1.3641308000000001</v>
@@ -9519,7 +9529,7 @@
     </row>
     <row r="469" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B469" s="2">
         <v>1.3635545</v>
@@ -9533,7 +9543,7 @@
     </row>
     <row r="470" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B470" s="2">
         <v>1.3795029999999999</v>
@@ -9547,7 +9557,7 @@
     </row>
     <row r="471" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B471" s="2">
         <v>1.3777526</v>
@@ -9561,7 +9571,7 @@
     </row>
     <row r="472" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B472" s="2">
         <v>1.3795519000000001</v>
@@ -9575,7 +9585,7 @@
     </row>
     <row r="473" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B473" s="2">
         <v>1.3796539999999999</v>
@@ -9589,7 +9599,7 @@
     </row>
     <row r="474" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B474" s="2">
         <v>1.3778596999999999</v>
@@ -9603,7 +9613,7 @@
     </row>
     <row r="475" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B475" s="2">
         <v>1.3766183999999999</v>
@@ -9617,7 +9627,7 @@
     </row>
     <row r="476" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B476" s="2">
         <v>1.3777853</v>
@@ -9631,7 +9641,7 @@
     </row>
     <row r="477" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B477" s="2">
         <v>1.3767487</v>
@@ -9645,7 +9655,7 @@
     </row>
     <row r="478" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B478" s="2">
         <v>1.3771910999999999</v>
@@ -9659,7 +9669,7 @@
     </row>
     <row r="479" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B479" s="2">
         <v>1.3112980000000001</v>
@@ -9673,7 +9683,7 @@
     </row>
     <row r="480" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B480" s="2">
         <v>1.3112478000000001</v>
@@ -9687,7 +9697,7 @@
     </row>
     <row r="481" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B481" s="2">
         <v>43.924534700000002</v>
@@ -9701,7 +9711,7 @@
     </row>
     <row r="482" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B482" s="2">
         <v>1.3664661</v>
@@ -9715,7 +9725,7 @@
     </row>
     <row r="483" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B483" s="2">
         <v>1.3665334</v>
@@ -9729,7 +9739,7 @@
     </row>
     <row r="484" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B484" s="2">
         <v>1.3656584000000001</v>
@@ -9743,7 +9753,7 @@
     </row>
     <row r="485" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B485" s="2">
         <v>1.3644343999999999</v>
@@ -9757,7 +9767,7 @@
     </row>
     <row r="486" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B486" s="2">
         <v>1.3944369000000001</v>
@@ -9771,7 +9781,7 @@
     </row>
     <row r="487" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B487" s="2">
         <v>1.3950117</v>
@@ -9785,7 +9795,7 @@
     </row>
     <row r="488" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B488" s="2">
         <v>1.395527</v>
@@ -9799,7 +9809,7 @@
     </row>
     <row r="489" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B489" s="2">
         <v>1.3954120000000001</v>
@@ -9813,7 +9823,7 @@
     </row>
     <row r="490" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B490" s="2">
         <v>1.3014878999999999</v>
@@ -9827,7 +9837,7 @@
     </row>
     <row r="491" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B491" s="2">
         <v>1.3019742999999999</v>
@@ -9841,7 +9851,7 @@
     </row>
     <row r="492" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B492" s="2">
         <v>48.423690099999902</v>
@@ -9855,7 +9865,7 @@
     </row>
     <row r="493" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B493" s="2">
         <v>33.782738600000002</v>
@@ -9869,7 +9879,7 @@
     </row>
     <row r="494" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B494" s="2">
         <v>36.145527899999998</v>
@@ -9883,7 +9893,7 @@
     </row>
     <row r="495" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B495" s="2">
         <v>1.3319403000000001</v>
@@ -9897,7 +9907,7 @@
     </row>
     <row r="496" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B496" s="2">
         <v>1.3325457999999999</v>
@@ -9911,7 +9921,7 @@
     </row>
     <row r="497" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B497" s="2">
         <v>33.794395100000003</v>
@@ -9925,7 +9935,7 @@
     </row>
     <row r="498" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B498" s="2">
         <v>39.298985199999997</v>
@@ -9939,7 +9949,7 @@
     </row>
     <row r="499" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B499" s="2">
         <v>1.3451375000000001</v>
@@ -9953,7 +9963,7 @@
     </row>
     <row r="500" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B500" s="2">
         <v>1.3581445999999999</v>
@@ -9967,7 +9977,7 @@
     </row>
     <row r="501" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B501" s="2">
         <v>1.3577463999999999</v>
@@ -9981,7 +9991,7 @@
     </row>
     <row r="502" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B502" s="2">
         <v>1.3584691</v>
@@ -9995,7 +10005,7 @@
     </row>
     <row r="503" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B503" s="2">
         <v>1.3579698</v>
@@ -10009,7 +10019,7 @@
     </row>
     <row r="504" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B504" s="2">
         <v>1.3294433999999999</v>
@@ -10023,7 +10033,7 @@
     </row>
     <row r="505" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B505" s="2">
         <v>1.3294743</v>
@@ -10037,7 +10047,7 @@
     </row>
     <row r="506" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B506" s="2">
         <v>1.328128</v>
@@ -10051,7 +10061,7 @@
     </row>
     <row r="507" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B507" s="2">
         <v>1.3272883</v>
@@ -10065,7 +10075,7 @@
     </row>
     <row r="508" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B508" s="2">
         <v>1.3274300000000001</v>
@@ -10079,7 +10089,7 @@
     </row>
     <row r="509" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B509" s="2">
         <v>1.3846160000000001</v>
@@ -10093,7 +10103,7 @@
     </row>
     <row r="510" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B510" s="2">
         <v>1.3839649000000001</v>
@@ -10107,7 +10117,7 @@
     </row>
     <row r="511" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B511" s="2">
         <v>1.3850830000000001</v>
@@ -10121,7 +10131,7 @@
     </row>
     <row r="512" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B512" s="2">
         <v>38.383457200000002</v>
@@ -10135,7 +10145,7 @@
     </row>
     <row r="513" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B513" s="2">
         <v>35.365088999999998</v>
@@ -10149,7 +10159,7 @@
     </row>
     <row r="514" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B514" s="2">
         <v>1.3554663</v>
@@ -10163,7 +10173,7 @@
     </row>
     <row r="515" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B515" s="2">
         <v>1.3557859999999999</v>
@@ -10177,7 +10187,7 @@
     </row>
     <row r="516" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B516" s="2">
         <v>1.3209188000000001</v>
@@ -10191,7 +10201,7 @@
     </row>
     <row r="517" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B517" s="2">
         <v>1.31853</v>
@@ -10205,7 +10215,7 @@
     </row>
     <row r="518" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B518" s="2">
         <v>1.3189283999999999</v>
@@ -10219,7 +10229,7 @@
     </row>
     <row r="519" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B519" s="2">
         <v>1.3148067999999999</v>
@@ -10233,7 +10243,7 @@
     </row>
     <row r="520" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B520" s="2">
         <v>1.3153840999999999</v>
@@ -10247,7 +10257,7 @@
     </row>
     <row r="521" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B521" s="2">
         <v>1.3138269</v>
@@ -10261,7 +10271,7 @@
     </row>
     <row r="522" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B522" s="2">
         <v>1.3139813</v>
@@ -10275,7 +10285,7 @@
     </row>
     <row r="523" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B523" s="2">
         <v>1.3151417999999999</v>
@@ -10289,7 +10299,7 @@
     </row>
     <row r="524" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B524" s="2">
         <v>30.324892500000001</v>
@@ -10303,7 +10313,7 @@
     </row>
     <row r="525" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B525" s="2">
         <v>1.2982271000000001</v>
@@ -10317,7 +10327,7 @@
     </row>
     <row r="526" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B526" s="2">
         <v>1.2981794</v>
@@ -10331,7 +10341,7 @@
     </row>
     <row r="527" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B527" s="2">
         <v>1.2994363</v>
@@ -10345,7 +10355,7 @@
     </row>
     <row r="528" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B528" s="2">
         <v>1.3717846</v>
@@ -10359,7 +10369,7 @@
     </row>
     <row r="529" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B529" s="2">
         <v>1.3677602</v>
@@ -10373,7 +10383,7 @@
     </row>
     <row r="530" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B530" s="2">
         <v>1.3417733000000001</v>
@@ -10387,7 +10397,7 @@
     </row>
     <row r="531" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B531" s="2">
         <v>40.035608600000003</v>
@@ -10401,7 +10411,7 @@
     </row>
     <row r="532" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B532" s="2">
         <v>1.4460554999999999</v>
@@ -10415,7 +10425,7 @@
     </row>
     <row r="533" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B533" s="2">
         <v>1.4436424000000001</v>
@@ -10429,7 +10439,7 @@
     </row>
     <row r="534" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B534" s="2">
         <v>1.4445330000000001</v>
@@ -10443,7 +10453,7 @@
     </row>
     <row r="535" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B535" s="2">
         <v>1.4451077999999999</v>
@@ -10457,7 +10467,7 @@
     </row>
     <row r="536" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B536" s="2">
         <v>1.4454720999999999</v>
@@ -10471,7 +10481,7 @@
     </row>
     <row r="537" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B537" s="2">
         <v>1.4336298000000001</v>
@@ -10485,7 +10495,7 @@
     </row>
     <row r="538" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B538" s="2">
         <v>1.4339272999999999</v>
@@ -10499,7 +10509,7 @@
     </row>
     <row r="539" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B539" s="2">
         <v>1.43418</v>
@@ -10513,7 +10523,7 @@
     </row>
     <row r="540" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B540" s="2">
         <v>1.4361964</v>
@@ -10527,7 +10537,7 @@
     </row>
     <row r="541" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B541" s="2">
         <v>1.4354966</v>
@@ -10541,7 +10551,7 @@
     </row>
     <row r="542" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B542" s="2">
         <v>42.973745800000003</v>
@@ -10555,7 +10565,7 @@
     </row>
     <row r="543" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B543" s="2">
         <v>-41.215873500000001</v>
@@ -10569,7 +10579,7 @@
     </row>
     <row r="544" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B544" s="2">
         <v>33.4990752</v>
@@ -10583,7 +10593,7 @@
     </row>
     <row r="545" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B545" s="2">
         <v>1.3182725</v>
@@ -10597,7 +10607,7 @@
     </row>
     <row r="546" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B546" s="2">
         <v>1.3644628000000001</v>
@@ -10611,7 +10621,7 @@
     </row>
     <row r="547" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B547" s="2">
         <v>39.354830300000003</v>
@@ -10625,7 +10635,7 @@
     </row>
     <row r="548" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B548" s="2">
         <v>1.362697</v>
@@ -10639,7 +10649,7 @@
     </row>
     <row r="549" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B549" s="2">
         <v>1.3164480000000001</v>
@@ -10653,7 +10663,7 @@
     </row>
     <row r="550" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B550" s="2">
         <v>1.3165557000000001</v>
@@ -10667,7 +10677,7 @@
     </row>
     <row r="551" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B551" s="2">
         <v>1.3165781999999999</v>
@@ -10681,7 +10691,7 @@
     </row>
     <row r="552" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B552" s="2">
         <v>42.438823499999998</v>
@@ -10695,7 +10705,7 @@
     </row>
     <row r="553" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B553" s="2">
         <v>1.3223634</v>
@@ -10709,7 +10719,7 @@
     </row>
     <row r="554" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B554" s="2">
         <v>1.3224332000000001</v>
@@ -10723,7 +10733,7 @@
     </row>
     <row r="555" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B555" s="2">
         <v>1.322333</v>
@@ -10737,7 +10747,7 @@
     </row>
     <row r="556" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B556" s="2">
         <v>1.3235661000000001</v>
@@ -10751,7 +10761,7 @@
     </row>
     <row r="557" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B557" s="2">
         <v>35.010634600000003</v>
@@ -10765,7 +10775,7 @@
     </row>
     <row r="558" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B558" s="2">
         <v>34.071401999999999</v>
@@ -10779,7 +10789,7 @@
     </row>
     <row r="559" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B559" s="2">
         <v>1.3626889</v>
@@ -10793,7 +10803,7 @@
     </row>
     <row r="560" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B560" s="2">
         <v>1.3638607</v>
@@ -10807,7 +10817,7 @@
     </row>
     <row r="561" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B561" s="2">
         <v>1.3618524000000001</v>
@@ -10821,7 +10831,7 @@
     </row>
     <row r="562" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B562" s="2">
         <v>1.3390846999999999</v>
@@ -10835,7 +10845,7 @@
     </row>
     <row r="563" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B563" s="2">
         <v>1.4179695999999999</v>
@@ -10849,7 +10859,7 @@
     </row>
     <row r="564" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B564" s="2">
         <v>1.417519</v>
@@ -10863,7 +10873,7 @@
     </row>
     <row r="565" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B565" s="2">
         <v>1.4162387000000001</v>
@@ -10877,7 +10887,7 @@
     </row>
     <row r="566" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B566" s="2">
         <v>41.336428300000001</v>
@@ -10891,7 +10901,7 @@
     </row>
     <row r="567" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B567" s="2">
         <v>1.2988656999999999</v>
@@ -10905,7 +10915,7 @@
     </row>
     <row r="568" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B568" s="2">
         <v>26.691501299999999</v>
@@ -10919,7 +10929,7 @@
     </row>
     <row r="569" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B569" s="2">
         <v>1.3222206999999999</v>
@@ -10933,7 +10943,7 @@
     </row>
     <row r="570" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B570" s="2">
         <v>1.3227112999999999</v>
@@ -10947,7 +10957,7 @@
     </row>
     <row r="571" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B571" s="2">
         <v>1.347259</v>
@@ -10961,7 +10971,7 @@
     </row>
     <row r="572" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B572" s="2">
         <v>1.3468207999999999</v>
@@ -10975,7 +10985,7 @@
     </row>
     <row r="573" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B573" s="2">
         <v>1.3465292</v>
@@ -10989,7 +10999,7 @@
     </row>
     <row r="574" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B574" s="2">
         <v>1.3584274999999999</v>
@@ -11003,7 +11013,7 @@
     </row>
     <row r="575" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B575" s="2">
         <v>1.3575082000000001</v>
@@ -11017,7 +11027,7 @@
     </row>
     <row r="576" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B576" s="2">
         <v>1.3571384</v>
@@ -11031,7 +11041,7 @@
     </row>
     <row r="577" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B577" s="2">
         <v>1.3555250000000001</v>
@@ -11045,7 +11055,7 @@
     </row>
     <row r="578" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B578" s="2">
         <v>1.3048975</v>
@@ -11059,7 +11069,7 @@
     </row>
     <row r="579" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B579" s="2">
         <v>1.3030712</v>
@@ -11073,7 +11083,7 @@
     </row>
     <row r="580" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B580" s="2">
         <v>1.3034024</v>
@@ -11087,7 +11097,7 @@
     </row>
     <row r="581" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B581" s="2">
         <v>1.3740589999999999</v>
@@ -11101,7 +11111,7 @@
     </row>
     <row r="582" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B582" s="2">
         <v>1.3319905000000001</v>
@@ -11115,7 +11125,7 @@
     </row>
     <row r="583" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B583" s="2">
         <v>41.426219000000003</v>
@@ -11129,7 +11139,7 @@
     </row>
     <row r="584" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B584" s="2">
         <v>1.3875401999999999</v>
@@ -11143,7 +11153,7 @@
     </row>
     <row r="585" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B585" s="2">
         <v>34.024154299999999</v>
@@ -11157,7 +11167,7 @@
     </row>
     <row r="586" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B586" s="2">
         <v>1.3508962</v>
@@ -11171,7 +11181,7 @@
     </row>
     <row r="587" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B587" s="2">
         <v>34.850477300000001</v>
@@ -11185,7 +11195,7 @@
     </row>
     <row r="588" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B588" s="2">
         <v>34.850477300000001</v>
@@ -11199,7 +11209,7 @@
     </row>
     <row r="589" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B589" s="2">
         <v>1.298079</v>
@@ -11213,7 +11223,7 @@
     </row>
     <row r="590" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B590" s="2">
         <v>43.556139399999999</v>
@@ -11227,7 +11237,7 @@
     </row>
     <row r="591" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B591" s="2">
         <v>44.926394500000001</v>
@@ -11241,7 +11251,7 @@
     </row>
     <row r="592" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B592" s="2">
         <v>38.882298499999997</v>
@@ -11255,7 +11265,7 @@
     </row>
     <row r="593" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B593" s="2">
         <v>1.3065519999999999</v>
@@ -11269,7 +11279,7 @@
     </row>
     <row r="594" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B594" s="2">
         <v>1.3250489000000001</v>
@@ -11283,7 +11293,7 @@
     </row>
     <row r="595" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B595" s="2">
         <v>1.3256829999999999</v>
@@ -11297,7 +11307,7 @@
     </row>
     <row r="596" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B596" s="2">
         <v>1.3244724000000001</v>
@@ -11311,7 +11321,7 @@
     </row>
     <row r="597" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B597" s="2">
         <v>1.2806740999999999</v>
@@ -11325,7 +11335,7 @@
     </row>
     <row r="598" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B598" s="2">
         <v>1.2803121</v>
@@ -11339,7 +11349,7 @@
     </row>
     <row r="599" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B599" s="2">
         <v>1.2799457000000001</v>
@@ -11353,7 +11363,7 @@
     </row>
     <row r="600" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B600" s="2">
         <v>1.3145115000000001</v>
@@ -11367,7 +11377,7 @@
     </row>
     <row r="601" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B601" s="2">
         <v>-6.1390569999999904</v>
@@ -11381,7 +11391,7 @@
     </row>
     <row r="602" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B602" s="2">
         <v>1.4419236</v>
@@ -11395,7 +11405,7 @@
     </row>
     <row r="603" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B603" s="2">
         <v>1.3107901</v>
@@ -11409,7 +11419,7 @@
     </row>
     <row r="604" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B604" s="2">
         <v>1.3148067999999999</v>
@@ -11423,7 +11433,7 @@
     </row>
     <row r="605" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B605" s="2">
         <v>1.3159148000000001</v>
@@ -11437,7 +11447,7 @@
     </row>
     <row r="606" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B606" s="2">
         <v>1.3164609</v>
@@ -11451,7 +11461,7 @@
     </row>
     <row r="607" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B607" s="2">
         <v>1.3167546999999999</v>
@@ -11465,7 +11475,7 @@
     </row>
     <row r="608" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B608" s="2">
         <v>39.054424699999998</v>
@@ -11479,7 +11489,7 @@
     </row>
     <row r="609" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B609" s="2">
         <v>1.3831939</v>
@@ -11493,7 +11503,7 @@
     </row>
     <row r="610" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B610" s="2">
         <v>1.4038771999999999</v>
@@ -11507,7 +11517,7 @@
     </row>
     <row r="611" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B611" s="2">
         <v>1.374903</v>
@@ -11521,7 +11531,7 @@
     </row>
     <row r="612" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B612" s="2">
         <v>1.3749606000000001</v>
@@ -11535,7 +11545,7 @@
     </row>
     <row r="613" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B613" s="2">
         <v>1.3626164000000001</v>
@@ -11549,7 +11559,7 @@
     </row>
     <row r="614" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B614" s="2">
         <v>1.3624828</v>
@@ -11563,7 +11573,7 @@
     </row>
     <row r="615" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B615" s="2">
         <v>1.3347803</v>
@@ -11577,7 +11587,7 @@
     </row>
     <row r="616" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B616" s="2">
         <v>1.3347941999999999</v>
@@ -11591,7 +11601,7 @@
     </row>
     <row r="617" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B617" s="2">
         <v>1.3349382000000001</v>
@@ -11605,7 +11615,7 @@
     </row>
     <row r="618" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B618" s="2">
         <v>1.3143058999999999</v>
@@ -11619,7 +11629,7 @@
     </row>
     <row r="619" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B619" s="2">
         <v>1.3139023000000001</v>
@@ -11633,7 +11643,7 @@
     </row>
     <row r="620" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B620" s="2">
         <v>1.3155668</v>
@@ -11647,7 +11657,7 @@
     </row>
     <row r="621" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B621" s="2">
         <v>36.853613199999998</v>
@@ -11661,7 +11671,7 @@
     </row>
     <row r="622" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B622" s="2">
         <v>1.4372031000000001</v>
@@ -11675,7 +11685,7 @@
     </row>
     <row r="623" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B623" s="2">
         <v>1.4365889000000001</v>
@@ -11689,7 +11699,7 @@
     </row>
     <row r="624" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B624" s="2">
         <v>1.3759189000000001</v>
@@ -11703,7 +11713,7 @@
     </row>
     <row r="625" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B625" s="2">
         <v>1.3767031999999999</v>
@@ -11717,7 +11727,7 @@
     </row>
     <row r="626" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B626" s="2">
         <v>1.3708768</v>
@@ -11731,7 +11741,7 @@
     </row>
     <row r="627" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B627" s="2">
         <v>44.635975899999998</v>
@@ -11745,7 +11755,7 @@
     </row>
     <row r="628" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B628" s="2">
         <v>1.3312025000000001</v>
@@ -11759,7 +11769,7 @@
     </row>
     <row r="629" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B629" s="2">
         <v>1.3316410000000001</v>
@@ -11773,7 +11783,7 @@
     </row>
     <row r="630" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B630" s="2">
         <v>1.333142</v>
@@ -11787,7 +11797,7 @@
     </row>
     <row r="631" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B631" s="2">
         <v>1.3320818999999999</v>
@@ -11801,7 +11811,7 @@
     </row>
     <row r="632" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B632" s="2">
         <v>1.337161</v>
@@ -11815,7 +11825,7 @@
     </row>
     <row r="633" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B633" s="2">
         <v>1.3359217000000001</v>
@@ -11829,7 +11839,7 @@
     </row>
     <row r="634" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B634" s="2">
         <v>41.160527100000003</v>
@@ -11843,7 +11853,7 @@
     </row>
     <row r="635" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B635" s="2">
         <v>1.3635375999999999</v>
@@ -11857,7 +11867,7 @@
     </row>
     <row r="636" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B636" s="2">
         <v>1.3635417999999999</v>
@@ -11871,7 +11881,7 @@
     </row>
     <row r="637" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B637" s="2">
         <v>1.3793342</v>
@@ -11885,7 +11895,7 @@
     </row>
     <row r="638" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B638" s="2">
         <v>1.375008</v>
@@ -11899,7 +11909,7 @@
     </row>
     <row r="639" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B639" s="2">
         <v>1.3237706</v>
@@ -11913,7 +11923,7 @@
     </row>
     <row r="640" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B640" s="2">
         <v>1.3248659</v>
@@ -11927,7 +11937,7 @@
     </row>
     <row r="641" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B641" s="2">
         <v>1.3346153000000001</v>
@@ -11941,7 +11951,7 @@
     </row>
     <row r="642" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B642" s="2">
         <v>42.189791999999997</v>
@@ -11955,7 +11965,7 @@
     </row>
     <row r="643" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B643" s="2">
         <v>1.3258892</v>
@@ -11969,7 +11979,7 @@
     </row>
     <row r="644" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B644" s="2">
         <v>1.3817390000000001</v>
@@ -11983,7 +11993,7 @@
     </row>
     <row r="645" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B645" s="2">
         <v>1.3823380000000001</v>
@@ -11997,7 +12007,7 @@
     </row>
     <row r="646" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B646" s="2">
         <v>1.3942935000000001</v>
@@ -12011,7 +12021,7 @@
     </row>
     <row r="647" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B647" s="2">
         <v>1.3212123</v>
@@ -12025,7 +12035,7 @@
     </row>
     <row r="648" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B648" s="2">
         <v>1.3185606000000001</v>
@@ -12039,7 +12049,7 @@
     </row>
     <row r="649" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B649" s="2">
         <v>1.3200544000000001</v>
@@ -12053,7 +12063,7 @@
     </row>
     <row r="650" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B650" s="2">
         <v>1.3302147</v>
@@ -12067,7 +12077,7 @@
     </row>
     <row r="651" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B651" s="2">
         <v>1.3310599000000001</v>
@@ -12081,7 +12091,7 @@
     </row>
     <row r="652" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B652" s="2">
         <v>1.3694189000000001</v>
@@ -12095,7 +12105,7 @@
     </row>
     <row r="653" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B653" s="2">
         <v>1.3704421</v>
@@ -12109,7 +12119,7 @@
     </row>
     <row r="654" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B654" s="2">
         <v>1.2789611999999999</v>
@@ -12123,7 +12133,7 @@
     </row>
     <row r="655" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B655" s="2">
         <v>1.3347017999999999</v>
@@ -12137,7 +12147,7 @@
     </row>
     <row r="656" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B656" s="2">
         <v>1.3362485</v>
@@ -12151,7 +12161,7 @@
     </row>
     <row r="657" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B657" s="2">
         <v>40.035608600000003</v>
@@ -12165,7 +12175,7 @@
     </row>
     <row r="658" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B658" s="2">
         <v>1.3431147000000001</v>
@@ -12179,7 +12189,7 @@
     </row>
     <row r="659" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B659" s="2">
         <v>1.3436249</v>
@@ -12193,7 +12203,7 @@
     </row>
     <row r="660" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B660" s="2">
         <v>1.2935166</v>
@@ -12207,7 +12217,7 @@
     </row>
     <row r="661" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B661" s="2">
         <v>1.2947781</v>
@@ -12221,7 +12231,7 @@
     </row>
     <row r="662" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B662" s="2">
         <v>1.3426271000000001</v>
@@ -12235,7 +12245,7 @@
     </row>
     <row r="663" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B663" s="2">
         <v>1.3412302</v>
@@ -12249,7 +12259,7 @@
     </row>
     <row r="664" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B664" s="2">
         <v>1.317987</v>
@@ -12263,7 +12273,7 @@
     </row>
     <row r="665" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B665" s="2">
         <v>1.3044446000000001</v>
@@ -12277,7 +12287,7 @@
     </row>
     <row r="666" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B666" s="2">
         <v>1.3047358</v>
@@ -12291,7 +12301,7 @@
     </row>
     <row r="667" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B667" s="2">
         <v>1.3176654999999999</v>
@@ -12305,7 +12315,7 @@
     </row>
     <row r="668" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B668" s="2">
         <v>1.3710853999999999</v>
@@ -12319,7 +12329,7 @@
     </row>
     <row r="669" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B669" s="2">
         <v>29.723299099999998</v>
@@ -12333,7 +12343,7 @@
     </row>
     <row r="670" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B670" s="2">
         <v>1.3522221999999999</v>
@@ -12347,7 +12357,7 @@
     </row>
     <row r="671" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B671" s="2">
         <v>1.3538161</v>
@@ -12361,7 +12371,7 @@
     </row>
     <row r="672" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B672" s="2">
         <v>1.3120480999999999</v>
@@ -12375,7 +12385,7 @@
     </row>
     <row r="673" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B673" s="2">
         <v>1.4244523</v>
@@ -12389,7 +12399,7 @@
     </row>
     <row r="674" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B674" s="2">
         <v>1.3425579999999999</v>
@@ -12403,7 +12413,7 @@
     </row>
     <row r="675" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B675" s="2">
         <v>1.3434535000000001</v>
@@ -12417,7 +12427,7 @@
     </row>
     <row r="676" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B676" s="2">
         <v>33.511538799999997</v>
@@ -12431,7 +12441,7 @@
     </row>
     <row r="677" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B677" s="2">
         <v>1.3510222000000001</v>
@@ -12445,7 +12455,7 @@
     </row>
     <row r="678" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B678" s="2">
         <v>1.3598053999999999</v>
@@ -12459,7 +12469,7 @@
     </row>
     <row r="679" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B679" s="2">
         <v>1.3587932</v>
@@ -12473,7 +12483,7 @@
     </row>
     <row r="680" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B680" s="2">
         <v>1.3228519999999999</v>
@@ -12487,7 +12497,7 @@
     </row>
     <row r="681" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B681" s="2">
         <v>1.3220276</v>
@@ -12501,7 +12511,7 @@
     </row>
     <row r="682" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B682" s="2">
         <v>1.3683662999999999</v>
@@ -12515,7 +12525,7 @@
     </row>
     <row r="683" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B683" s="2">
         <v>1.3168542999999999</v>
@@ -12529,7 +12539,7 @@
     </row>
     <row r="684" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B684" s="2">
         <v>1.328616</v>
@@ -12543,7 +12553,7 @@
     </row>
     <row r="685" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B685" s="2">
         <v>1.3276889000000001</v>
@@ -12557,7 +12567,7 @@
     </row>
     <row r="686" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B686" s="2">
         <v>1.324516</v>
@@ -12571,7 +12581,7 @@
     </row>
     <row r="687" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B687" s="2">
         <v>1.3239466</v>
@@ -12585,7 +12595,7 @@
     </row>
     <row r="688" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B688" s="2">
         <v>1.4347046000000001</v>
@@ -12599,7 +12609,7 @@
     </row>
     <row r="689" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B689" s="2">
         <v>1.4356431999999999</v>
@@ -12613,7 +12623,7 @@
     </row>
     <row r="690" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B690" s="2">
         <v>1.4361542</v>
@@ -12627,7 +12637,7 @@
     </row>
     <row r="691" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B691" s="2">
         <v>1.4189944999999999</v>
@@ -12641,7 +12651,7 @@
     </row>
     <row r="692" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B692" s="2">
         <v>1.4201093</v>
